--- a/sheets/product.xlsx
+++ b/sheets/product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\wesbite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\wesbite\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3DE36-6C58-4A7E-B3EA-488D005F1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36490898-E5C9-4E96-8ADD-C79BF0E7538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="14016" windowWidth="21600" windowHeight="11772" xr2:uid="{A3D9CFC0-A4FA-4D74-9F42-B64EF00015B9}"/>
+    <workbookView xWindow="4560" yWindow="2040" windowWidth="21600" windowHeight="11775" xr2:uid="{A3D9CFC0-A4FA-4D74-9F42-B64EF00015B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,129 @@
   </si>
   <si>
     <t>Toyota</t>
+  </si>
+  <si>
+    <t>Product 9</t>
+  </si>
+  <si>
+    <t>Product 10</t>
+  </si>
+  <si>
+    <t>Product 11</t>
+  </si>
+  <si>
+    <t>Product 12</t>
+  </si>
+  <si>
+    <t>Product 13</t>
+  </si>
+  <si>
+    <t>Product 14</t>
+  </si>
+  <si>
+    <t>Product 15</t>
+  </si>
+  <si>
+    <t>Product 16</t>
+  </si>
+  <si>
+    <t>Product 17</t>
+  </si>
+  <si>
+    <t>Product 18</t>
+  </si>
+  <si>
+    <t>Product 19</t>
+  </si>
+  <si>
+    <t>Product 20</t>
+  </si>
+  <si>
+    <t>Product 21</t>
+  </si>
+  <si>
+    <t>Product 22</t>
+  </si>
+  <si>
+    <t>Product 23</t>
+  </si>
+  <si>
+    <t>Product 24</t>
+  </si>
+  <si>
+    <t>Product 25</t>
+  </si>
+  <si>
+    <t>Product 26</t>
+  </si>
+  <si>
+    <t>Product 27</t>
+  </si>
+  <si>
+    <t>Product 28</t>
+  </si>
+  <si>
+    <t>Product 29</t>
+  </si>
+  <si>
+    <t>Product 30</t>
+  </si>
+  <si>
+    <t>Product 31</t>
+  </si>
+  <si>
+    <t>Product 32</t>
+  </si>
+  <si>
+    <t>Product 33</t>
+  </si>
+  <si>
+    <t>Product 34</t>
+  </si>
+  <si>
+    <t>Product 35</t>
+  </si>
+  <si>
+    <t>Product 36</t>
+  </si>
+  <si>
+    <t>Product 37</t>
+  </si>
+  <si>
+    <t>Product 38</t>
+  </si>
+  <si>
+    <t>Product 39</t>
+  </si>
+  <si>
+    <t>Product 40</t>
+  </si>
+  <si>
+    <t>Product 41</t>
+  </si>
+  <si>
+    <t>Product 42</t>
+  </si>
+  <si>
+    <t>Product 43</t>
+  </si>
+  <si>
+    <t>Product 44</t>
+  </si>
+  <si>
+    <t>Product 45</t>
+  </si>
+  <si>
+    <t>Product 46</t>
+  </si>
+  <si>
+    <t>Product 47</t>
+  </si>
+  <si>
+    <t>Product 48</t>
+  </si>
+  <si>
+    <t>Product 49</t>
   </si>
 </sst>
 </file>
@@ -431,14 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAD1C6A-A99F-4848-AF81-C462A817B5D7}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,6 +719,703 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
